--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il4-Cd53.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il4-Cd53.xlsx
@@ -528,34 +528,34 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.658048</v>
+        <v>0.3454506666666666</v>
       </c>
       <c r="H2">
-        <v>1.974144</v>
+        <v>1.036352</v>
       </c>
       <c r="I2">
-        <v>0.1830904640197834</v>
+        <v>0.1052716477644991</v>
       </c>
       <c r="J2">
-        <v>0.1830904640197835</v>
+        <v>0.1052716477644991</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>220.975443</v>
+        <v>0.051095</v>
       </c>
       <c r="N2">
-        <v>662.926329</v>
+        <v>0.153285</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>145.412448315264</v>
+        <v>0.01765080181333333</v>
       </c>
       <c r="R2">
-        <v>1308.712034837376</v>
+        <v>0.15885721632</v>
       </c>
       <c r="S2">
-        <v>0.1830904640197834</v>
+        <v>0.1052716477644991</v>
       </c>
       <c r="T2">
-        <v>0.1830904640197835</v>
+        <v>0.1052716477644991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>3.346101</v>
       </c>
       <c r="I3">
-        <v>0.3103315587652478</v>
+        <v>0.3398937483175971</v>
       </c>
       <c r="J3">
-        <v>0.3103315587652479</v>
+        <v>0.3398937483175971</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>220.975443</v>
+        <v>0.051095</v>
       </c>
       <c r="N3">
-        <v>662.926329</v>
+        <v>0.153285</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>246.468716932581</v>
+        <v>0.056989676865</v>
       </c>
       <c r="R3">
-        <v>2218.218452393229</v>
+        <v>0.512907091785</v>
       </c>
       <c r="S3">
-        <v>0.3103315587652478</v>
+        <v>0.3398937483175971</v>
       </c>
       <c r="T3">
-        <v>0.3103315587652479</v>
+        <v>0.3398937483175971</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,22 +664,22 @@
         <v>5.462097</v>
       </c>
       <c r="I4">
-        <v>0.5065779772149687</v>
+        <v>0.5548346039179038</v>
       </c>
       <c r="J4">
-        <v>0.5065779772149687</v>
+        <v>0.5548346039179038</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>220.975443</v>
+        <v>0.051095</v>
       </c>
       <c r="N4">
-        <v>662.926329</v>
+        <v>0.153285</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>402.329768094657</v>
+        <v>0.093028615405</v>
       </c>
       <c r="R4">
-        <v>3620.967912851913</v>
+        <v>0.8372575386450001</v>
       </c>
       <c r="S4">
-        <v>0.5065779772149687</v>
+        <v>0.5548346039179038</v>
       </c>
       <c r="T4">
-        <v>0.5065779772149687</v>
+        <v>0.5548346039179038</v>
       </c>
     </row>
   </sheetData>
